--- a/Tests/Core/Cross Sheet Template.xlsx
+++ b/Tests/Core/Cross Sheet Template.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>|initializedVar = 2</t>
+    <t>|initializedVar</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="C5:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
